--- a/src/main/resources/template/excel/export/diffSearchSummarizing.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchSummarizing.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="J3")</t>
+          <t>jx:area(lastCell="L3")</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="J3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="L3")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>${obj.branchCode}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -139,13 +139,29 @@
   </si>
   <si>
     <t>实际处理金额（成本价）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际处理金额（不含税成本价）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏金额（不含税成本价）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedProfitLossCostAmount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedCostAmountHandle}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,7 +327,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -597,22 +613,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EB75"/>
+  <dimension ref="A1:ED75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="18.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="26.875" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="1" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="21.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:134" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -625,8 +643,8 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -747,8 +765,10 @@
       <c r="DZ1" s="3"/>
       <c r="EA1" s="3"/>
       <c r="EB1" s="3"/>
+      <c r="EC1" s="3"/>
+      <c r="ED1" s="3"/>
     </row>
-    <row r="2" spans="1:132" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:134" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -768,19 +788,23 @@
         <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -901,8 +925,10 @@
       <c r="DZ2" s="3"/>
       <c r="EA2" s="3"/>
       <c r="EB2" s="3"/>
+      <c r="EC2" s="3"/>
+      <c r="ED2" s="3"/>
     </row>
-    <row r="3" spans="1:132" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:134" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -922,31 +948,37 @@
         <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:132" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:134" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:134" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:134" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:134" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:134" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:134" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:134" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:134" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:134" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:134" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1008,11 +1040,11 @@
     <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>